--- a/prep_whi/wh_data_layers.xlsx
+++ b/prep_whi/wh_data_layers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33620" yWindow="-1140" windowWidth="27240" windowHeight="16040" xr2:uid="{BA4BDD05-6900-9F41-B2DE-3E4C7FE1CF11}"/>
+    <workbookView xWindow="-33740" yWindow="-3140" windowWidth="27240" windowHeight="9040" xr2:uid="{BA4BDD05-6900-9F41-B2DE-3E4C7FE1CF11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="552">
   <si>
     <t>Goal</t>
   </si>
@@ -149,12 +149,6 @@
     <t>soft bottom trend</t>
   </si>
   <si>
-    <t>hab_trend_mhi</t>
-  </si>
-  <si>
-    <t>hab_trend_mhi2017.csv</t>
-  </si>
-  <si>
     <t>Trend was not evaluated for soft bottom habitats.</t>
   </si>
   <si>
@@ -521,18 +515,6 @@
     <t>ECO</t>
   </si>
   <si>
-    <t>inflation adjusted usd</t>
-  </si>
-  <si>
-    <t>gdp_usd</t>
-  </si>
-  <si>
-    <t>le_gdp_mhi2017.csv</t>
-  </si>
-  <si>
-    <t>The inflation adjusted usd.</t>
-  </si>
-  <si>
     <t>DBEDT</t>
   </si>
   <si>
@@ -545,9 +527,6 @@
     <t>le_gdp</t>
   </si>
   <si>
-    <t>The revenue generated per ocean sector for each county.</t>
-  </si>
-  <si>
     <t xml:space="preserve">NOAA ENOW </t>
   </si>
   <si>
@@ -566,12 +545,6 @@
     <t>le_jobs</t>
   </si>
   <si>
-    <t>le_jobs_mhi2017.csv</t>
-  </si>
-  <si>
-    <t>The total number of jobs per ocean sector for each county.</t>
-  </si>
-  <si>
     <t>resident population</t>
   </si>
   <si>
@@ -608,12 +581,6 @@
     <t>le_wage</t>
   </si>
   <si>
-    <t>le_wages_mhi2017.csv</t>
-  </si>
-  <si>
-    <t>The mean wage per ocean sector by county</t>
-  </si>
-  <si>
     <t xml:space="preserve">workforce </t>
   </si>
   <si>
@@ -731,15 +698,9 @@
     <t>NOAA:NationalCentersforEnvironmentalInformation</t>
   </si>
   <si>
-    <t>coral bleaching</t>
-  </si>
-  <si>
     <t>cc_sst_nearshore</t>
   </si>
   <si>
-    <t>cc_sst_nearshore_mhi2017.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mean degree heating weeks (DHW) for nearshore areas (wihting 10 km of the coastlint), with coral bleaching expected after 4 DHW.  Scores of 1 indicate that coral bleaching is expected or occured. </t>
   </si>
   <si>
@@ -1163,12 +1124,6 @@
     <t>hd_watersheds</t>
   </si>
   <si>
-    <t>hd_watersheds_mhi2017.csv</t>
-  </si>
-  <si>
-    <t>The percent of priority watersheds that are fenced to protect againts invasive animals.</t>
-  </si>
-  <si>
     <t>DLNR</t>
   </si>
   <si>
@@ -1217,33 +1172,6 @@
     <t>http://geoportal.hawaii.gov/datasets/conservation-district-subzones?geometry=-158.087%2C21.194%2C-157.109%2C21.418</t>
   </si>
   <si>
-    <t>habitat health</t>
-  </si>
-  <si>
-    <t>res_hab_health</t>
-  </si>
-  <si>
-    <t>res_hab_health_mhi2017.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scores from the habitats subgoal of biodiversity are used as resilience for Livelihoods and Economies and the Sustainable Tourism goals. </t>
-  </si>
-  <si>
-    <t>goal scores for Habitats</t>
-  </si>
-  <si>
-    <t>Social Progress Index</t>
-  </si>
-  <si>
-    <t>res_spi</t>
-  </si>
-  <si>
-    <t>res_spi_gl2016.csv</t>
-  </si>
-  <si>
-    <t>The Social Progress Index scores.</t>
-  </si>
-  <si>
     <t>management of nonindigenous species</t>
   </si>
   <si>
@@ -1680,6 +1608,78 @@
   </si>
   <si>
     <t>Dredging was defined as activity involving physically removing substrate with machinery typically to allow for safe passage of vessels. Units are in km2.</t>
+  </si>
+  <si>
+    <t>lsp_area_1km_coast</t>
+  </si>
+  <si>
+    <t>lsp_area_1km_coast_whi2018.csv</t>
+  </si>
+  <si>
+    <t>lsp_area_3nm</t>
+  </si>
+  <si>
+    <t>lsp_area_3nm_whi2018.csv</t>
+  </si>
+  <si>
+    <t>lsp_coastal_conservation</t>
+  </si>
+  <si>
+    <t>lsp_coastal_conservation_whi2018.csv</t>
+  </si>
+  <si>
+    <t>lsp_mpa_3nm</t>
+  </si>
+  <si>
+    <t>lsp_mpa_3nm_whi2018.csv</t>
+  </si>
+  <si>
+    <t>The area of marine managed areas (including BFRA, MPA, FMA)</t>
+  </si>
+  <si>
+    <t>The area of state waters (within 3nm of the coastline)</t>
+  </si>
+  <si>
+    <t>The terestrial area within 1 km of the shoreline</t>
+  </si>
+  <si>
+    <t>DLNR -OCCL</t>
+  </si>
+  <si>
+    <t>le_gdp_whi2018.csv</t>
+  </si>
+  <si>
+    <t>le_wages_whi2018.csv</t>
+  </si>
+  <si>
+    <t>The mean wage per ocean sector for Hawaii County</t>
+  </si>
+  <si>
+    <t>The revenue generated per ocean sector for Hawaii County.</t>
+  </si>
+  <si>
+    <t>le_jobs_whi2018.csv</t>
+  </si>
+  <si>
+    <t>The total number of jobs per ocean sector for Hawaii County.</t>
+  </si>
+  <si>
+    <t>coral bleaching threat</t>
+  </si>
+  <si>
+    <t>cc_sst_nearshore_whi2018.csv</t>
+  </si>
+  <si>
+    <t>hab_trend_whi2018.csv</t>
+  </si>
+  <si>
+    <t>hab_trend_whi</t>
+  </si>
+  <si>
+    <t>hd_watersheds_whi2018.csv</t>
+  </si>
+  <si>
+    <t>The percent of priority watersheds that are fenced to protect againts invasive animals on Hawaii Island.</t>
   </si>
 </sst>
 </file>
@@ -2039,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0443116-B1A4-D241-A6F7-CB04C41068E5}">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="P111" sqref="P111:P114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2171,10 +2171,10 @@
         <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>35</v>
@@ -2186,7 +2186,7 @@
         <v>37</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2200,10 +2200,10 @@
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>39</v>
@@ -2213,6 +2213,9 @@
       </c>
       <c r="M5" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2226,16 +2229,19 @@
         <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>44</v>
+      <c r="P6" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2243,19 +2249,19 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>20</v>
@@ -2281,31 +2287,34 @@
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>57</v>
+      <c r="P8" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2313,31 +2322,34 @@
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>63</v>
+      <c r="P9" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2345,31 +2357,34 @@
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2380,25 +2395,28 @@
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2409,16 +2427,16 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>36</v>
@@ -2427,7 +2445,7 @@
         <v>37</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2438,16 +2456,16 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1">
         <v>2000</v>
@@ -2456,16 +2474,16 @@
         <v>2001</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P13" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2476,16 +2494,16 @@
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1">
         <v>2000</v>
@@ -2494,10 +2512,13 @@
         <v>2001</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2508,16 +2529,16 @@
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>20</v>
@@ -2529,13 +2550,16 @@
         <v>2014</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>90</v>
+      <c r="P15" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2546,25 +2570,28 @@
         <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>95</v>
+      <c r="P16" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2575,28 +2602,28 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2607,25 +2634,28 @@
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>104</v>
+      <c r="P18" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2636,51 +2666,51 @@
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="L19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>70</v>
       </c>
-      <c r="E20" t="s">
+      <c r="K20" t="s">
         <v>71</v>
       </c>
-      <c r="F20" t="s">
+      <c r="L20" t="s">
         <v>72</v>
-      </c>
-      <c r="K20" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" t="s">
-        <v>74</v>
       </c>
       <c r="M20" t="s">
         <v>25</v>
@@ -2688,19 +2718,19 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" t="s">
-        <v>110</v>
-      </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s">
         <v>36</v>
@@ -2711,19 +2741,19 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
         <v>108</v>
       </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" t="s">
-        <v>110</v>
-      </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H22">
         <v>2000</v>
@@ -2732,30 +2762,30 @@
         <v>2001</v>
       </c>
       <c r="K22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" t="s">
         <v>79</v>
-      </c>
-      <c r="L22" t="s">
-        <v>80</v>
-      </c>
-      <c r="M22" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H23">
         <v>2000</v>
@@ -2764,27 +2794,27 @@
         <v>2001</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -2796,186 +2826,186 @@
         <v>2014</v>
       </c>
       <c r="K24" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24" t="s">
         <v>88</v>
-      </c>
-      <c r="L24" t="s">
-        <v>89</v>
-      </c>
-      <c r="M24" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" t="s">
         <v>91</v>
       </c>
-      <c r="D25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="L25" t="s">
         <v>92</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>93</v>
-      </c>
-      <c r="L25" t="s">
-        <v>94</v>
-      </c>
-      <c r="M25" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" t="s">
         <v>96</v>
       </c>
-      <c r="D26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="L26" t="s">
         <v>97</v>
       </c>
-      <c r="K26" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" t="s">
-        <v>99</v>
-      </c>
       <c r="M26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" t="s">
         <v>100</v>
       </c>
-      <c r="D27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="L27" t="s">
         <v>101</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>102</v>
-      </c>
-      <c r="L27" t="s">
-        <v>103</v>
-      </c>
-      <c r="M27" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
         <v>108</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" t="s">
         <v>105</v>
       </c>
-      <c r="D28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" t="s">
-        <v>106</v>
-      </c>
-      <c r="K28" t="s">
-        <v>107</v>
-      </c>
       <c r="L28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" t="s">
         <v>114</v>
       </c>
-      <c r="D29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="M29" t="s">
         <v>115</v>
-      </c>
-      <c r="K29" t="s">
-        <v>116</v>
-      </c>
-      <c r="M29" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
         <v>108</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" t="s">
-        <v>110</v>
-      </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2983,31 +3013,31 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="P32" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3015,31 +3045,31 @@
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="K33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="P33" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3047,19 +3077,19 @@
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>20</v>
@@ -3071,16 +3101,16 @@
         <v>2016</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="P34" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3088,34 +3118,34 @@
         <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="I35" s="1">
         <v>2018</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3123,34 +3153,34 @@
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="P36" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3158,31 +3188,31 @@
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3190,19 +3220,19 @@
         <v>14</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>20</v>
@@ -3214,10 +3244,13 @@
         <v>2017</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3225,25 +3258,28 @@
         <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3251,19 +3287,19 @@
         <v>14</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>20</v>
@@ -3275,10 +3311,13 @@
         <v>2017</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3286,19 +3325,19 @@
         <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="H41" s="1">
         <v>2007</v>
@@ -3307,16 +3346,16 @@
         <v>2011</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="P41" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3324,19 +3363,19 @@
         <v>14</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>20</v>
@@ -3348,273 +3387,276 @@
         <v>2011</v>
       </c>
       <c r="K42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2013</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>163</v>
-      </c>
-      <c r="B43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="B44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2013</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F43" t="s">
+      <c r="L44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43">
-        <v>2005</v>
-      </c>
-      <c r="I43">
-        <v>2013</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="M44" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L43" t="s">
-        <v>170</v>
-      </c>
-      <c r="M43" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B44" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44">
-        <v>2005</v>
-      </c>
-      <c r="I44">
-        <v>2013</v>
-      </c>
-      <c r="K44" t="s">
-        <v>174</v>
-      </c>
-      <c r="L44" t="s">
-        <v>175</v>
-      </c>
-      <c r="M44" t="s">
-        <v>176</v>
+      <c r="P44" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F45" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
       </c>
       <c r="H45">
-        <v>2005</v>
+        <v>1960</v>
       </c>
       <c r="I45">
-        <v>2013</v>
+        <v>20112</v>
       </c>
       <c r="K45" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L45" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="M45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F46" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
       </c>
       <c r="H46">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="I46">
-        <v>20112</v>
+        <v>2016</v>
       </c>
       <c r="K46" t="s">
+        <v>182</v>
+      </c>
+      <c r="L46" t="s">
+        <v>164</v>
+      </c>
+      <c r="M46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L46" t="s">
-        <v>170</v>
-      </c>
-      <c r="M46" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47" t="s">
-        <v>190</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47">
-        <v>1990</v>
-      </c>
-      <c r="I47">
-        <v>2016</v>
-      </c>
-      <c r="K47" t="s">
-        <v>191</v>
-      </c>
-      <c r="L47" t="s">
-        <v>170</v>
-      </c>
-      <c r="M47" t="s">
-        <v>169</v>
+      <c r="P47" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E48" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F48" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
       </c>
+      <c r="H48">
+        <v>1990</v>
+      </c>
+      <c r="I48">
+        <v>2015</v>
+      </c>
       <c r="K48" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="M48" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F49" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G49" t="s">
         <v>20</v>
       </c>
-      <c r="H49">
-        <v>1990</v>
-      </c>
-      <c r="I49">
-        <v>2015</v>
-      </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M49" t="s">
         <v>169</v>
@@ -3622,1611 +3664,1638 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" t="s">
+        <v>194</v>
+      </c>
+      <c r="K50" t="s">
         <v>163</v>
       </c>
-      <c r="B50" t="s">
-        <v>177</v>
-      </c>
-      <c r="C50" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" t="s">
-        <v>202</v>
-      </c>
-      <c r="F50" t="s">
-        <v>203</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" t="s">
-        <v>174</v>
-      </c>
       <c r="L50" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="M50" t="s">
-        <v>176</v>
+        <v>196</v>
+      </c>
+      <c r="N50" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" t="s">
+        <v>203</v>
+      </c>
+      <c r="K51" t="s">
         <v>204</v>
       </c>
-      <c r="C51" t="s">
+      <c r="L51" t="s">
         <v>205</v>
       </c>
-      <c r="K51" t="s">
-        <v>169</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>206</v>
       </c>
-      <c r="M51" t="s">
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N51" t="s">
+      <c r="D52" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="E52" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C52" t="s">
+      <c r="F52" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D52" t="s">
+      <c r="G52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E52" t="s">
+      <c r="L52" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F52" t="s">
+      <c r="M52" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G52" t="s">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" t="s">
         <v>214</v>
       </c>
-      <c r="K52" t="s">
+      <c r="D53" t="s">
         <v>215</v>
       </c>
-      <c r="L52" t="s">
+      <c r="E53" t="s">
         <v>216</v>
       </c>
-      <c r="M52" t="s">
+      <c r="F53" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="G53" t="s">
+        <v>203</v>
+      </c>
+      <c r="K53" t="s">
+        <v>211</v>
+      </c>
+      <c r="L53" t="s">
+        <v>212</v>
+      </c>
+      <c r="M53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K53" s="1" t="s">
+      <c r="G54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L54" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M54" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" t="s">
-        <v>226</v>
-      </c>
-      <c r="E54" t="s">
-        <v>227</v>
-      </c>
-      <c r="F54" t="s">
-        <v>228</v>
-      </c>
-      <c r="G54" t="s">
-        <v>214</v>
-      </c>
-      <c r="K54" t="s">
-        <v>222</v>
-      </c>
-      <c r="L54" t="s">
-        <v>223</v>
-      </c>
-      <c r="M54" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" t="s">
         <v>229</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" t="s">
         <v>230</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" t="s">
         <v>231</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F56" t="s">
         <v>232</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L55" s="1" t="s">
+      <c r="G56" t="s">
+        <v>203</v>
+      </c>
+      <c r="K56" t="s">
+        <v>204</v>
+      </c>
+      <c r="L56" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="G57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>209</v>
-      </c>
-      <c r="C57" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" t="s">
-        <v>244</v>
-      </c>
-      <c r="F57" t="s">
-        <v>245</v>
-      </c>
-      <c r="G57" t="s">
-        <v>214</v>
-      </c>
-      <c r="K57" t="s">
-        <v>215</v>
-      </c>
-      <c r="L57" t="s">
-        <v>216</v>
-      </c>
-      <c r="M57" t="s">
-        <v>217</v>
+      <c r="P57" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>492</v>
+        <v>241</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2011</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>491</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I59" s="1">
         <v>2011</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>260</v>
+        <v>465</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>261</v>
+        <v>466</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I60" s="1">
-        <v>2011</v>
+        <v>203</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>489</v>
+        <v>257</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>264</v>
+        <v>470</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" t="s">
+        <v>262</v>
+      </c>
+      <c r="G62" t="s">
+        <v>203</v>
+      </c>
+      <c r="K62" t="s">
+        <v>258</v>
+      </c>
+      <c r="L62" t="s">
+        <v>253</v>
+      </c>
+      <c r="M62" t="s">
+        <v>254</v>
+      </c>
+      <c r="N62" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" t="s">
+        <v>265</v>
+      </c>
+      <c r="F63" t="s">
+        <v>266</v>
+      </c>
+      <c r="G63" t="s">
+        <v>203</v>
+      </c>
+      <c r="K63" t="s">
+        <v>258</v>
+      </c>
+      <c r="L63" t="s">
+        <v>253</v>
+      </c>
+      <c r="M63" t="s">
+        <v>254</v>
+      </c>
+      <c r="N63" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" t="s">
+        <v>270</v>
+      </c>
+      <c r="E65" t="s">
+        <v>271</v>
+      </c>
+      <c r="F65" t="s">
         <v>272</v>
       </c>
-      <c r="D63" t="s">
+      <c r="G65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H65">
+        <v>2015</v>
+      </c>
+      <c r="I65">
+        <v>2015</v>
+      </c>
+      <c r="K65" t="s">
         <v>273</v>
       </c>
-      <c r="E63" t="s">
+      <c r="L65" t="s">
+        <v>164</v>
+      </c>
+      <c r="M65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" t="s">
         <v>274</v>
       </c>
-      <c r="F63" t="s">
+      <c r="D66" t="s">
         <v>275</v>
       </c>
-      <c r="G63" t="s">
-        <v>214</v>
-      </c>
-      <c r="K63" t="s">
-        <v>271</v>
-      </c>
-      <c r="L63" t="s">
-        <v>266</v>
-      </c>
-      <c r="M63" t="s">
-        <v>267</v>
-      </c>
-      <c r="N63" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>209</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="E66" t="s">
         <v>276</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F66" t="s">
         <v>277</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G66" t="s">
+        <v>203</v>
+      </c>
+      <c r="K66" t="s">
+        <v>258</v>
+      </c>
+      <c r="L66" t="s">
+        <v>253</v>
+      </c>
+      <c r="M66" t="s">
+        <v>254</v>
+      </c>
+      <c r="N66" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
         <v>278</v>
       </c>
-      <c r="F64" t="s">
+      <c r="D67" t="s">
         <v>279</v>
       </c>
-      <c r="G64" t="s">
-        <v>214</v>
-      </c>
-      <c r="K64" t="s">
-        <v>271</v>
-      </c>
-      <c r="L64" t="s">
-        <v>266</v>
-      </c>
-      <c r="M64" t="s">
-        <v>267</v>
-      </c>
-      <c r="N64" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="E67" t="s">
         <v>280</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="F67" t="s">
         <v>281</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="G67" t="s">
+        <v>203</v>
+      </c>
+      <c r="K67" t="s">
+        <v>258</v>
+      </c>
+      <c r="L67" t="s">
+        <v>253</v>
+      </c>
+      <c r="M67" t="s">
+        <v>254</v>
+      </c>
+      <c r="N67" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D68" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F66" t="s">
+      <c r="L68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G66" t="s">
-        <v>214</v>
-      </c>
-      <c r="H66">
+      <c r="D69" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" t="s">
+        <v>295</v>
+      </c>
+      <c r="D72" t="s">
+        <v>296</v>
+      </c>
+      <c r="E72" t="s">
+        <v>297</v>
+      </c>
+      <c r="F72" t="s">
+        <v>298</v>
+      </c>
+      <c r="G72" t="s">
+        <v>203</v>
+      </c>
+      <c r="H72">
         <v>2015</v>
       </c>
-      <c r="I66">
+      <c r="I72">
         <v>2015</v>
       </c>
-      <c r="K66" t="s">
-        <v>286</v>
-      </c>
-      <c r="L66" t="s">
-        <v>170</v>
-      </c>
-      <c r="M66" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>209</v>
-      </c>
-      <c r="C67" t="s">
-        <v>287</v>
-      </c>
-      <c r="D67" t="s">
-        <v>288</v>
-      </c>
-      <c r="E67" t="s">
-        <v>289</v>
-      </c>
-      <c r="F67" t="s">
-        <v>290</v>
-      </c>
-      <c r="G67" t="s">
-        <v>214</v>
-      </c>
-      <c r="K67" t="s">
-        <v>271</v>
-      </c>
-      <c r="L67" t="s">
-        <v>266</v>
-      </c>
-      <c r="M67" t="s">
-        <v>267</v>
-      </c>
-      <c r="N67" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68" t="s">
-        <v>291</v>
-      </c>
-      <c r="D68" t="s">
-        <v>292</v>
-      </c>
-      <c r="E68" t="s">
-        <v>293</v>
-      </c>
-      <c r="F68" t="s">
-        <v>294</v>
-      </c>
-      <c r="G68" t="s">
-        <v>214</v>
-      </c>
-      <c r="K68" t="s">
-        <v>271</v>
-      </c>
-      <c r="L68" t="s">
-        <v>266</v>
-      </c>
-      <c r="M68" t="s">
-        <v>267</v>
-      </c>
-      <c r="N68" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="K72" t="s">
         <v>299</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="L72" t="s">
+        <v>253</v>
+      </c>
+      <c r="M72" t="s">
+        <v>254</v>
+      </c>
+      <c r="N72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" t="s">
         <v>300</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="D73" t="s">
         <v>301</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E73" t="s">
         <v>302</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="F73" t="s">
         <v>303</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="G73" t="s">
+        <v>203</v>
+      </c>
+      <c r="K73" t="s">
+        <v>258</v>
+      </c>
+      <c r="L73" t="s">
+        <v>253</v>
+      </c>
+      <c r="M73" t="s">
+        <v>254</v>
+      </c>
+      <c r="N73" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" t="s">
         <v>304</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D74" t="s">
         <v>305</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E74" t="s">
         <v>306</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F74" t="s">
         <v>307</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="G74" t="s">
+        <v>203</v>
+      </c>
+      <c r="K74" t="s">
+        <v>258</v>
+      </c>
+      <c r="L74" t="s">
+        <v>253</v>
+      </c>
+      <c r="M74" t="s">
+        <v>254</v>
+      </c>
+      <c r="N74" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" t="s">
         <v>308</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D75" t="s">
         <v>309</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E75" t="s">
         <v>310</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F75" t="s">
         <v>311</v>
       </c>
-      <c r="G73" t="s">
-        <v>214</v>
-      </c>
-      <c r="H73">
-        <v>2015</v>
-      </c>
-      <c r="I73">
-        <v>2015</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="G75" t="s">
+        <v>203</v>
+      </c>
+      <c r="K75" t="s">
+        <v>258</v>
+      </c>
+      <c r="L75" t="s">
+        <v>253</v>
+      </c>
+      <c r="M75" t="s">
+        <v>254</v>
+      </c>
+      <c r="N75" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="L73" t="s">
-        <v>266</v>
-      </c>
-      <c r="M73" t="s">
-        <v>267</v>
-      </c>
-      <c r="N73" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D76" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E76" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F76" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K76" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F74" t="s">
+      <c r="L76" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G74" t="s">
-        <v>214</v>
-      </c>
-      <c r="K74" t="s">
-        <v>271</v>
-      </c>
-      <c r="L74" t="s">
-        <v>266</v>
-      </c>
-      <c r="M74" t="s">
-        <v>267</v>
-      </c>
-      <c r="N74" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="M76" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D75" t="s">
+    </row>
+    <row r="77" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E75" t="s">
+      <c r="D77" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F75" t="s">
+      <c r="E77" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G75" t="s">
-        <v>214</v>
-      </c>
-      <c r="K75" t="s">
-        <v>271</v>
-      </c>
-      <c r="L75" t="s">
-        <v>266</v>
-      </c>
-      <c r="M75" t="s">
-        <v>267</v>
-      </c>
-      <c r="N75" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="F77" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K77" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D76" t="s">
+      <c r="L77" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E76" t="s">
+      <c r="D78" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F76" t="s">
+      <c r="E78" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G76" t="s">
-        <v>214</v>
-      </c>
-      <c r="K76" t="s">
-        <v>271</v>
-      </c>
-      <c r="L76" t="s">
-        <v>266</v>
-      </c>
-      <c r="M76" t="s">
-        <v>267</v>
-      </c>
-      <c r="N76" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="F78" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="L78" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K77" s="1" t="s">
+      <c r="E79" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="F79" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K79" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="L79" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="O77" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E80" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F80" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K78" s="1" t="s">
+      <c r="L80" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="L78" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E81" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F81" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K81" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K79" s="1" t="s">
+      <c r="L81" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>338</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="C82" t="s">
+        <v>341</v>
+      </c>
+      <c r="D82" t="s">
+        <v>342</v>
+      </c>
+      <c r="E82" t="s">
+        <v>343</v>
+      </c>
+      <c r="F82" t="s">
+        <v>344</v>
+      </c>
+      <c r="G82" t="s">
         <v>339</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="I82">
+        <v>2014</v>
+      </c>
+      <c r="K82" t="s">
         <v>345</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K81" s="1" t="s">
+      <c r="L82" t="s">
         <v>346</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="M82" t="s">
         <v>347</v>
       </c>
-      <c r="D82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>338</v>
+      </c>
+      <c r="C83" t="s">
         <v>348</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="D83" t="s">
         <v>349</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K82" s="1" t="s">
+      <c r="E83" t="s">
         <v>350</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="F83" t="s">
         <v>351</v>
       </c>
-      <c r="C83" t="s">
-        <v>354</v>
-      </c>
-      <c r="D83" t="s">
-        <v>355</v>
-      </c>
-      <c r="E83" t="s">
-        <v>356</v>
-      </c>
-      <c r="F83" t="s">
-        <v>357</v>
-      </c>
       <c r="G83" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="I83">
         <v>2014</v>
       </c>
       <c r="K83" t="s">
+        <v>345</v>
+      </c>
+      <c r="L83" t="s">
+        <v>352</v>
+      </c>
+      <c r="M83" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>338</v>
+      </c>
+      <c r="C84" t="s">
+        <v>353</v>
+      </c>
+      <c r="D84" t="s">
+        <v>354</v>
+      </c>
+      <c r="E84" t="s">
+        <v>355</v>
+      </c>
+      <c r="F84" t="s">
+        <v>356</v>
+      </c>
+      <c r="G84" t="s">
+        <v>339</v>
+      </c>
+      <c r="K84" t="s">
+        <v>357</v>
+      </c>
+      <c r="L84" t="s">
+        <v>205</v>
+      </c>
+      <c r="M84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>338</v>
+      </c>
+      <c r="C85" t="s">
         <v>358</v>
       </c>
-      <c r="L83" t="s">
+      <c r="D85" t="s">
         <v>359</v>
       </c>
-      <c r="M83" t="s">
+      <c r="E85" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="F85" t="s">
+        <v>344</v>
+      </c>
+      <c r="G85" t="s">
+        <v>345</v>
+      </c>
+      <c r="H85" t="s">
+        <v>346</v>
+      </c>
+      <c r="K85" t="s">
+        <v>345</v>
+      </c>
+      <c r="L85" t="s">
+        <v>346</v>
+      </c>
+      <c r="M85" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>338</v>
+      </c>
+      <c r="C86" t="s">
+        <v>361</v>
+      </c>
+      <c r="D86" t="s">
+        <v>362</v>
+      </c>
+      <c r="E86" t="s">
+        <v>363</v>
+      </c>
+      <c r="F86" t="s">
         <v>351</v>
       </c>
-      <c r="C84" t="s">
-        <v>361</v>
-      </c>
-      <c r="D84" t="s">
-        <v>362</v>
-      </c>
-      <c r="E84" t="s">
-        <v>363</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="G86" t="s">
+        <v>339</v>
+      </c>
+      <c r="I86">
+        <v>2014</v>
+      </c>
+      <c r="K86" t="s">
+        <v>345</v>
+      </c>
+      <c r="L86" t="s">
+        <v>352</v>
+      </c>
+      <c r="M86" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G84" t="s">
-        <v>352</v>
-      </c>
-      <c r="I84">
-        <v>2014</v>
-      </c>
-      <c r="K84" t="s">
-        <v>358</v>
-      </c>
-      <c r="L84" t="s">
+      <c r="D87" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="M84" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>351</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="E87" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K87" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D85" t="s">
+      <c r="M87" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E85" t="s">
+      <c r="P87" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F85" t="s">
+      <c r="D88" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G85" t="s">
-        <v>352</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="E88" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="L85" t="s">
-        <v>216</v>
-      </c>
-      <c r="M85" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>351</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="F88" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D86" t="s">
+      <c r="H88" s="1">
+        <v>1999</v>
+      </c>
+      <c r="I88" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E86" t="s">
+      <c r="L88" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F86" t="s">
-        <v>357</v>
-      </c>
-      <c r="G86" t="s">
-        <v>358</v>
-      </c>
-      <c r="H86" t="s">
-        <v>359</v>
-      </c>
-      <c r="K86" t="s">
-        <v>358</v>
-      </c>
-      <c r="L86" t="s">
-        <v>359</v>
-      </c>
-      <c r="M86" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>351</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="M88" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D87" t="s">
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>338</v>
+      </c>
+      <c r="C89" t="s">
         <v>375</v>
       </c>
-      <c r="E87" t="s">
+      <c r="D89" t="s">
         <v>376</v>
       </c>
-      <c r="F87" t="s">
-        <v>364</v>
-      </c>
-      <c r="G87" t="s">
-        <v>352</v>
-      </c>
-      <c r="I87">
-        <v>2014</v>
-      </c>
-      <c r="K87" t="s">
-        <v>358</v>
-      </c>
-      <c r="L87" t="s">
-        <v>365</v>
-      </c>
-      <c r="M87" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="E89" t="s">
         <v>377</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="F89" t="s">
         <v>378</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="G89" t="s">
         <v>379</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="I89">
+        <v>2011</v>
+      </c>
+      <c r="K89" t="s">
         <v>380</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K88" s="1" t="s">
+      <c r="L89" t="s">
         <v>381</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="M89" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>338</v>
+      </c>
+      <c r="C90" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="D90" t="s">
         <v>383</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E90" t="s">
         <v>384</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F90" t="s">
         <v>385</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="K90" t="s">
+        <v>340</v>
+      </c>
+      <c r="L90" t="s">
+        <v>205</v>
+      </c>
+      <c r="M90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>338</v>
+      </c>
+      <c r="C91" t="s">
         <v>386</v>
       </c>
-      <c r="H89" s="1">
-        <v>1999</v>
-      </c>
-      <c r="I89" s="1">
-        <v>2017</v>
-      </c>
-      <c r="K89" s="1" t="s">
+      <c r="D91" t="s">
         <v>387</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="E91" t="s">
         <v>388</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="F91" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>351</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="K91" t="s">
         <v>390</v>
       </c>
-      <c r="D90" t="s">
+      <c r="L91" t="s">
         <v>391</v>
       </c>
-      <c r="E90" t="s">
+      <c r="M91" t="s">
         <v>392</v>
       </c>
-      <c r="F90" t="s">
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" t="s">
         <v>393</v>
       </c>
-      <c r="G90" t="s">
+      <c r="D92" t="s">
         <v>394</v>
       </c>
-      <c r="I90">
-        <v>2011</v>
-      </c>
-      <c r="K90" t="s">
+      <c r="E92" t="s">
         <v>395</v>
       </c>
-      <c r="L90" t="s">
+      <c r="F92" t="s">
         <v>396</v>
       </c>
-      <c r="M90" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>351</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="G92" t="s">
+        <v>339</v>
+      </c>
+      <c r="I92">
+        <v>2015</v>
+      </c>
+      <c r="K92" t="s">
         <v>397</v>
       </c>
-      <c r="D91" t="s">
+      <c r="L92" t="s">
+        <v>164</v>
+      </c>
+      <c r="M92" t="s">
         <v>398</v>
       </c>
-      <c r="E91" t="s">
+    </row>
+    <row r="93" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F91" t="s">
+      <c r="D93" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="G91" t="s">
-        <v>352</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="E93" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>351</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="F93" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D92" t="s">
+      <c r="L93" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E92" t="s">
+      <c r="M93" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>338</v>
+      </c>
+      <c r="C94" t="s">
         <v>404</v>
       </c>
-      <c r="F92" t="s">
+      <c r="D94" t="s">
         <v>405</v>
       </c>
-      <c r="K92" t="s">
-        <v>353</v>
-      </c>
-      <c r="L92" t="s">
-        <v>216</v>
-      </c>
-      <c r="M92" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>351</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="E94" t="s">
         <v>406</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F94" t="s">
         <v>407</v>
       </c>
-      <c r="E93" t="s">
+      <c r="K94" t="s">
+        <v>340</v>
+      </c>
+      <c r="L94" t="s">
+        <v>205</v>
+      </c>
+      <c r="M94" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F93" t="s">
+      <c r="D95" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="K93" t="s">
-        <v>353</v>
-      </c>
-      <c r="L93" t="s">
-        <v>216</v>
-      </c>
-      <c r="M93" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>351</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="E95" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D94" t="s">
+      <c r="M95" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E94" t="s">
+      <c r="C97" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F94" t="s">
+      <c r="M97" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="K94" t="s">
-        <v>414</v>
-      </c>
-      <c r="L94" t="s">
-        <v>415</v>
-      </c>
-      <c r="M94" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>351</v>
-      </c>
-      <c r="C95" t="s">
-        <v>417</v>
-      </c>
-      <c r="D95" t="s">
-        <v>418</v>
-      </c>
-      <c r="E95" t="s">
-        <v>419</v>
-      </c>
-      <c r="F95" t="s">
-        <v>420</v>
-      </c>
-      <c r="G95" t="s">
-        <v>352</v>
-      </c>
-      <c r="I95">
-        <v>2015</v>
-      </c>
-      <c r="K95" t="s">
-        <v>421</v>
-      </c>
-      <c r="L95" t="s">
-        <v>170</v>
-      </c>
-      <c r="M95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>351</v>
-      </c>
-      <c r="C97" t="s">
-        <v>428</v>
-      </c>
-      <c r="D97" t="s">
-        <v>429</v>
-      </c>
-      <c r="E97" t="s">
-        <v>430</v>
-      </c>
-      <c r="F97" t="s">
-        <v>431</v>
-      </c>
-      <c r="K97" t="s">
-        <v>353</v>
-      </c>
-      <c r="L97" t="s">
-        <v>216</v>
-      </c>
-      <c r="M97" t="s">
-        <v>217</v>
+      <c r="P97" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>352</v>
+        <v>494</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>267</v>
+        <v>413</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>501</v>
+        <v>512</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2012</v>
+      </c>
+      <c r="I99" s="1">
+        <v>2016</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>267</v>
+        <v>163</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>522</v>
+      <c r="G100" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H100" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I100" s="1">
+        <v>2016</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>436</v>
+        <v>366</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>515</v>
+        <v>417</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>516</v>
+        <v>418</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>518</v>
       </c>
+      <c r="G101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I101" s="1">
+        <v>2016</v>
+      </c>
       <c r="K101" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>437</v>
+        <v>163</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>533</v>
+        <v>420</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>534</v>
+        <v>421</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>536</v>
+        <v>517</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H102" s="1">
         <v>2012</v>
@@ -5235,391 +5304,370 @@
         <v>2016</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>446</v>
+        <v>422</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>543</v>
+        <v>425</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="H103" s="1">
         <v>2011</v>
       </c>
       <c r="I103" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>338</v>
+      </c>
+      <c r="C105" t="s">
+        <v>431</v>
+      </c>
+      <c r="D105" t="s">
+        <v>432</v>
+      </c>
+      <c r="E105" t="s">
+        <v>433</v>
+      </c>
+      <c r="F105" t="s">
+        <v>434</v>
+      </c>
+      <c r="H105">
+        <v>2013</v>
+      </c>
+      <c r="I105">
+        <v>2017</v>
+      </c>
+      <c r="K105" t="s">
+        <v>435</v>
+      </c>
+      <c r="L105" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>338</v>
+      </c>
+      <c r="C106" t="s">
+        <v>437</v>
+      </c>
+      <c r="D106" t="s">
+        <v>438</v>
+      </c>
+      <c r="E106" t="s">
+        <v>439</v>
+      </c>
+      <c r="F106" t="s">
+        <v>440</v>
+      </c>
+      <c r="H106">
+        <v>2012</v>
+      </c>
+      <c r="I106">
+        <v>2015</v>
+      </c>
+      <c r="K106" t="s">
+        <v>435</v>
+      </c>
+      <c r="L106" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>338</v>
+      </c>
+      <c r="C107" t="s">
+        <v>441</v>
+      </c>
+      <c r="D107" t="s">
+        <v>442</v>
+      </c>
+      <c r="E107" t="s">
+        <v>443</v>
+      </c>
+      <c r="F107" t="s">
+        <v>444</v>
+      </c>
+      <c r="H107">
+        <v>2015</v>
+      </c>
+      <c r="I107">
         <v>2016</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" s="1">
-        <v>2011</v>
-      </c>
-      <c r="I104" s="1">
-        <v>2016</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105" s="1">
-        <v>2012</v>
-      </c>
-      <c r="I105" s="1">
-        <v>2016</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H106" s="1">
-        <v>2011</v>
-      </c>
-      <c r="I106" s="1">
-        <v>2015</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>491</v>
+      <c r="K107" t="s">
+        <v>435</v>
+      </c>
+      <c r="L107" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C108" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D108" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E108" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F108" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="H108">
         <v>2013</v>
       </c>
       <c r="I108">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="K108" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="L108" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C109" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D109" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E109" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F109" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H109">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="I109">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="K109" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="L109" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C110" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D110" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E110" t="s">
+        <v>455</v>
+      </c>
+      <c r="F110" t="s">
+        <v>456</v>
+      </c>
+      <c r="H110">
+        <v>2016</v>
+      </c>
+      <c r="I110">
+        <v>2017</v>
+      </c>
+      <c r="K110" t="s">
+        <v>435</v>
+      </c>
+      <c r="L110" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P111" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F110" t="s">
-        <v>468</v>
-      </c>
-      <c r="H110">
-        <v>2015</v>
-      </c>
-      <c r="I110">
-        <v>2016</v>
-      </c>
-      <c r="K110" t="s">
-        <v>459</v>
-      </c>
-      <c r="L110" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>351</v>
-      </c>
-      <c r="C111" t="s">
-        <v>469</v>
-      </c>
-      <c r="D111" t="s">
-        <v>470</v>
-      </c>
-      <c r="E111" t="s">
-        <v>471</v>
-      </c>
-      <c r="F111" t="s">
-        <v>472</v>
-      </c>
-      <c r="H111">
-        <v>2013</v>
-      </c>
-      <c r="I111">
-        <v>2016</v>
-      </c>
-      <c r="K111" t="s">
-        <v>459</v>
-      </c>
-      <c r="L111" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>351</v>
-      </c>
-      <c r="C112" t="s">
-        <v>473</v>
-      </c>
-      <c r="D112" t="s">
-        <v>474</v>
-      </c>
-      <c r="E112" t="s">
-        <v>475</v>
-      </c>
-      <c r="F112" t="s">
-        <v>476</v>
-      </c>
-      <c r="H112">
-        <v>2013</v>
-      </c>
-      <c r="I112">
-        <v>2017</v>
-      </c>
-      <c r="K112" t="s">
-        <v>459</v>
-      </c>
-      <c r="L112" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>351</v>
-      </c>
-      <c r="C113" t="s">
-        <v>477</v>
-      </c>
-      <c r="D113" t="s">
-        <v>478</v>
-      </c>
-      <c r="E113" t="s">
-        <v>479</v>
-      </c>
-      <c r="F113" t="s">
-        <v>480</v>
-      </c>
-      <c r="H113">
-        <v>2016</v>
-      </c>
-      <c r="I113">
-        <v>2017</v>
-      </c>
-      <c r="K113" t="s">
-        <v>459</v>
-      </c>
-      <c r="L113" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>548</v>
+        <v>524</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/prep_whi/wh_data_layers.xlsx
+++ b/prep_whi/wh_data_layers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33740" yWindow="-3140" windowWidth="27240" windowHeight="9040" xr2:uid="{BA4BDD05-6900-9F41-B2DE-3E4C7FE1CF11}"/>
+    <workbookView xWindow="-33740" yWindow="-3140" windowWidth="27240" windowHeight="18500" xr2:uid="{BA4BDD05-6900-9F41-B2DE-3E4C7FE1CF11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="553">
   <si>
     <t>Goal</t>
   </si>
@@ -1680,6 +1680,9 @@
   </si>
   <si>
     <t>The percent of priority watersheds that are fenced to protect againts invasive animals on Hawaii Island.</t>
+  </si>
+  <si>
+    <t>updated?</t>
   </si>
 </sst>
 </file>
@@ -2041,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0443116-B1A4-D241-A6F7-CB04C41068E5}">
   <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="P111" sqref="P111:P114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2095,69 +2098,90 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2001</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2168,22 +2192,25 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>467</v>
@@ -2197,22 +2224,25 @@
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>467</v>
@@ -2226,60 +2256,64 @@
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>26</v>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2287,31 +2321,28 @@
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>549</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>548</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>467</v>
@@ -2322,31 +2353,25 @@
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>500</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>525</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>467</v>
@@ -2357,31 +2382,25 @@
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>499</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>501</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>467</v>
@@ -2395,25 +2414,19 @@
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>467</v>
@@ -2427,22 +2440,34 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>502</v>
+        <v>85</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2014</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2014</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>467</v>
@@ -2456,31 +2481,25 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2001</v>
+        <v>90</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>467</v>
@@ -2491,31 +2510,31 @@
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>500</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>525</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2001</v>
+        <v>51</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>467</v>
@@ -2526,37 +2545,31 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>500</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>525</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2014</v>
+        <v>57</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>467</v>
@@ -2567,28 +2580,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>549</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>548</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>467</v>
@@ -2596,31 +2612,31 @@
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>549</v>
+        <v>128</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>548</v>
+        <v>458</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>467</v>
@@ -2628,31 +2644,31 @@
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>549</v>
+        <v>122</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>548</v>
+        <v>457</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>467</v>
@@ -2660,381 +2676,555 @@
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>499</v>
+        <v>131</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2012</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2016</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" t="s">
-        <v>25</v>
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" t="s">
-        <v>37</v>
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22">
-        <v>2000</v>
-      </c>
-      <c r="I22">
-        <v>2001</v>
-      </c>
-      <c r="K22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" t="s">
-        <v>79</v>
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23">
-        <v>2000</v>
-      </c>
-      <c r="I23">
-        <v>2001</v>
-      </c>
-      <c r="L23" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" t="s">
-        <v>83</v>
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>2007</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2011</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H24">
-        <v>2014</v>
-      </c>
-      <c r="I24">
-        <v>2014</v>
-      </c>
-      <c r="K24" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25" t="s">
-        <v>92</v>
-      </c>
-      <c r="M25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" t="s">
-        <v>96</v>
-      </c>
-      <c r="L26" t="s">
-        <v>97</v>
-      </c>
-      <c r="M26" t="s">
-        <v>83</v>
+      <c r="H26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" t="s">
-        <v>100</v>
-      </c>
-      <c r="L27" t="s">
-        <v>101</v>
-      </c>
-      <c r="M27" t="s">
-        <v>102</v>
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2002</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2011</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" t="s">
-        <v>105</v>
-      </c>
-      <c r="L28" t="s">
-        <v>92</v>
-      </c>
-      <c r="M28" t="s">
-        <v>93</v>
+      <c r="A28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2013</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" t="s">
-        <v>114</v>
-      </c>
-      <c r="M29" t="s">
-        <v>115</v>
+      <c r="A29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" t="s">
-        <v>117</v>
-      </c>
-      <c r="K30" t="s">
-        <v>114</v>
-      </c>
-      <c r="M30" t="s">
-        <v>115</v>
+      <c r="A30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2013</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" t="s">
-        <v>119</v>
-      </c>
-      <c r="K31" t="s">
-        <v>114</v>
-      </c>
-      <c r="M31" t="s">
-        <v>115</v>
+      <c r="A31" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>521</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>122</v>
+        <v>532</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>457</v>
+        <v>533</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>123</v>
+        <v>378</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>124</v>
+        <v>539</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>125</v>
+        <v>346</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>126</v>
+        <v>347</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>467</v>
@@ -3042,31 +3232,28 @@
     </row>
     <row r="33" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>127</v>
+        <v>524</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>128</v>
+        <v>534</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>458</v>
+        <v>535</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>129</v>
+        <v>536</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>124</v>
+        <v>345</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>125</v>
+        <v>346</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>126</v>
+        <v>347</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>467</v>
@@ -3074,40 +3261,25 @@
     </row>
     <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>523</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>131</v>
+        <v>530</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="1">
-        <v>2012</v>
-      </c>
-      <c r="I34" s="1">
-        <v>2016</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>124</v>
+        <v>537</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>125</v>
+        <v>346</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>126</v>
+        <v>347</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>467</v>
@@ -3115,34 +3287,34 @@
     </row>
     <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>134</v>
+        <v>465</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I35" s="1">
-        <v>2018</v>
+        <v>251</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>137</v>
+        <v>254</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>467</v>
@@ -3150,34 +3322,31 @@
     </row>
     <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>138</v>
+        <v>546</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>139</v>
+        <v>225</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>467</v>
@@ -3185,31 +3354,31 @@
     </row>
     <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>462</v>
+        <v>235</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>464</v>
+        <v>237</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>463</v>
+        <v>238</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>467</v>
@@ -3217,37 +3386,34 @@
     </row>
     <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="1">
-        <v>2017</v>
-      </c>
-      <c r="I38" s="1">
-        <v>2017</v>
+        <v>203</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>114</v>
+        <v>258</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>115</v>
+        <v>254</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>467</v>
@@ -3255,28 +3421,34 @@
     </row>
     <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>506</v>
+        <v>287</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>114</v>
+        <v>258</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>115</v>
+        <v>254</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>467</v>
@@ -3284,37 +3456,34 @@
     </row>
     <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>507</v>
+        <v>290</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="1">
-        <v>2017</v>
-      </c>
-      <c r="I40" s="1">
-        <v>2017</v>
+        <v>203</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>114</v>
+        <v>258</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>115</v>
+        <v>254</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>467</v>
@@ -3322,37 +3491,34 @@
     </row>
     <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>487</v>
+        <v>293</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="H41" s="1">
-        <v>2007</v>
-      </c>
-      <c r="I41" s="1">
-        <v>2011</v>
+        <v>294</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>155</v>
+        <v>254</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>467</v>
@@ -3360,40 +3526,34 @@
     </row>
     <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>157</v>
+        <v>484</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="1">
-        <v>2002</v>
-      </c>
-      <c r="I42" s="1">
-        <v>2011</v>
+        <v>203</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>159</v>
+        <v>284</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>159</v>
+        <v>254</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>467</v>
@@ -3401,40 +3561,34 @@
     </row>
     <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>540</v>
+        <v>469</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>543</v>
+        <v>470</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I43" s="1">
-        <v>2013</v>
+        <v>203</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>169</v>
+        <v>254</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>467</v>
@@ -3442,1323 +3596,1413 @@
     </row>
     <row r="44" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>170</v>
+        <v>411</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>171</v>
+        <v>491</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>172</v>
+        <v>492</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>544</v>
+        <v>497</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I44" s="1">
-        <v>2013</v>
+        <v>494</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>168</v>
+        <v>412</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>169</v>
+        <v>413</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45">
-        <v>1960</v>
-      </c>
-      <c r="I45">
-        <v>20112</v>
-      </c>
-      <c r="K45" t="s">
-        <v>163</v>
-      </c>
-      <c r="L45" t="s">
-        <v>164</v>
-      </c>
-      <c r="M45" t="s">
-        <v>177</v>
+      <c r="A45" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46">
-        <v>1990</v>
-      </c>
-      <c r="I46">
-        <v>2016</v>
-      </c>
-      <c r="K46" t="s">
-        <v>182</v>
-      </c>
-      <c r="L46" t="s">
-        <v>164</v>
-      </c>
-      <c r="M46" t="s">
-        <v>163</v>
+      <c r="A46" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>183</v>
+        <v>408</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>184</v>
+        <v>409</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>542</v>
+        <v>473</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>168</v>
+        <v>410</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="A48" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H48">
-        <v>1990</v>
-      </c>
-      <c r="I48">
+      <c r="H50" s="1">
+        <v>2012</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I52" s="1">
         <v>2015</v>
       </c>
-      <c r="K48" t="s">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1">
+        <v>2012</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L48" t="s">
-        <v>164</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="L53" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>161</v>
-      </c>
-      <c r="B49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49" t="s">
-        <v>190</v>
-      </c>
-      <c r="E49" t="s">
-        <v>191</v>
-      </c>
-      <c r="F49" t="s">
-        <v>192</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="L54" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K49" t="s">
-        <v>167</v>
-      </c>
-      <c r="L49" t="s">
-        <v>168</v>
-      </c>
-      <c r="M49" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" t="s">
-        <v>194</v>
-      </c>
-      <c r="K50" t="s">
-        <v>163</v>
-      </c>
-      <c r="L50" t="s">
-        <v>195</v>
-      </c>
-      <c r="M50" t="s">
-        <v>196</v>
-      </c>
-      <c r="N50" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>198</v>
-      </c>
-      <c r="C51" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" t="s">
-        <v>200</v>
-      </c>
-      <c r="E51" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" t="s">
-        <v>202</v>
-      </c>
-      <c r="G51" t="s">
-        <v>203</v>
-      </c>
-      <c r="K51" t="s">
-        <v>204</v>
-      </c>
-      <c r="L51" t="s">
-        <v>205</v>
-      </c>
-      <c r="M51" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" t="s">
-        <v>216</v>
-      </c>
-      <c r="F53" t="s">
-        <v>217</v>
-      </c>
-      <c r="G53" t="s">
-        <v>203</v>
-      </c>
-      <c r="K53" t="s">
-        <v>211</v>
-      </c>
-      <c r="L53" t="s">
-        <v>212</v>
-      </c>
-      <c r="M53" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="H55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s">
-        <v>204</v>
-      </c>
-      <c r="L56" t="s">
-        <v>205</v>
-      </c>
-      <c r="M56" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57">
+        <v>2000</v>
+      </c>
+      <c r="I57">
+        <v>2001</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57" t="s">
+        <v>82</v>
+      </c>
+      <c r="M57" t="s">
+        <v>83</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
     </row>
     <row r="58" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I58" s="1">
-        <v>2011</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58">
+        <v>2000</v>
+      </c>
+      <c r="I58">
+        <v>2001</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58" t="s">
+        <v>77</v>
+      </c>
+      <c r="L58" t="s">
+        <v>78</v>
+      </c>
+      <c r="M58" t="s">
+        <v>79</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
     </row>
     <row r="59" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I59" s="1">
-        <v>2011</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59" t="s">
+        <v>96</v>
+      </c>
+      <c r="L59" t="s">
+        <v>97</v>
+      </c>
+      <c r="M59" t="s">
+        <v>83</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
     </row>
     <row r="60" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60">
+        <v>2014</v>
+      </c>
+      <c r="I60">
+        <v>2014</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60" t="s">
+        <v>86</v>
+      </c>
+      <c r="L60" t="s">
+        <v>87</v>
+      </c>
+      <c r="M60" t="s">
+        <v>88</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
     </row>
     <row r="61" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61" t="s">
+        <v>105</v>
+      </c>
+      <c r="L61" t="s">
+        <v>92</v>
+      </c>
+      <c r="M61" t="s">
+        <v>93</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
       <c r="E62" t="s">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="F62" t="s">
-        <v>262</v>
-      </c>
-      <c r="G62" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="K62" t="s">
-        <v>258</v>
-      </c>
-      <c r="L62" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="M62" t="s">
-        <v>254</v>
-      </c>
-      <c r="N62" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="D63" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="F63" t="s">
-        <v>266</v>
-      </c>
-      <c r="G63" t="s">
-        <v>203</v>
+        <v>119</v>
       </c>
       <c r="K63" t="s">
-        <v>258</v>
-      </c>
-      <c r="L63" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="M63" t="s">
-        <v>254</v>
-      </c>
-      <c r="N63" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="A64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64" t="s">
+        <v>114</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64" t="s">
+        <v>115</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>269</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="F65" t="s">
-        <v>272</v>
-      </c>
-      <c r="G65" t="s">
-        <v>203</v>
-      </c>
-      <c r="H65">
-        <v>2015</v>
-      </c>
-      <c r="I65">
-        <v>2015</v>
+        <v>70</v>
       </c>
       <c r="K65" t="s">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="L65" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="M65" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>275</v>
+        <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="F66" t="s">
-        <v>277</v>
-      </c>
-      <c r="G66" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="K66" t="s">
-        <v>258</v>
-      </c>
-      <c r="L66" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="M66" t="s">
-        <v>254</v>
-      </c>
-      <c r="N66" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>278</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>279</v>
+        <v>110</v>
       </c>
       <c r="E67" t="s">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="F67" t="s">
-        <v>281</v>
-      </c>
-      <c r="G67" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="K67" t="s">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="L67" t="s">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="M67" t="s">
-        <v>254</v>
-      </c>
-      <c r="N67" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68" t="s">
+        <v>91</v>
+      </c>
+      <c r="L68" t="s">
+        <v>92</v>
+      </c>
+      <c r="M68" t="s">
+        <v>93</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
     </row>
     <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69"/>
+      <c r="M69" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69"/>
+      <c r="P69"/>
     </row>
     <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="A70" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="A71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" t="s">
+        <v>191</v>
+      </c>
+      <c r="F71" t="s">
+        <v>192</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71" t="s">
+        <v>167</v>
+      </c>
+      <c r="L71" t="s">
+        <v>168</v>
+      </c>
+      <c r="M71" t="s">
+        <v>169</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>198</v>
+        <v>161</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="D72" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="E72" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="F72" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="G72" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="H72">
-        <v>2015</v>
+        <v>1960</v>
       </c>
       <c r="I72">
-        <v>2015</v>
+        <v>20112</v>
       </c>
       <c r="K72" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="L72" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="M72" t="s">
-        <v>254</v>
-      </c>
-      <c r="N72" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>198</v>
+        <v>161</v>
+      </c>
+      <c r="B73" t="s">
+        <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="D73" t="s">
-        <v>301</v>
+        <v>179</v>
       </c>
       <c r="E73" t="s">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="F73" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="G73" t="s">
-        <v>203</v>
+        <v>20</v>
+      </c>
+      <c r="H73">
+        <v>1990</v>
+      </c>
+      <c r="I73">
+        <v>2016</v>
       </c>
       <c r="K73" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="L73" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="M73" t="s">
-        <v>254</v>
-      </c>
-      <c r="N73" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>161</v>
+      </c>
+      <c r="B74" t="s">
+        <v>170</v>
       </c>
       <c r="C74" t="s">
-        <v>304</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="E74" t="s">
-        <v>306</v>
+        <v>187</v>
       </c>
       <c r="F74" t="s">
-        <v>307</v>
+        <v>188</v>
       </c>
       <c r="G74" t="s">
-        <v>203</v>
+        <v>20</v>
+      </c>
+      <c r="H74">
+        <v>1990</v>
+      </c>
+      <c r="I74">
+        <v>2015</v>
       </c>
       <c r="K74" t="s">
-        <v>258</v>
+        <v>163</v>
       </c>
       <c r="L74" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="M74" t="s">
-        <v>254</v>
-      </c>
-      <c r="N74" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" t="s">
+        <v>194</v>
+      </c>
+      <c r="K75" t="s">
+        <v>163</v>
+      </c>
+      <c r="L75" t="s">
+        <v>195</v>
+      </c>
+      <c r="M75" t="s">
+        <v>196</v>
+      </c>
+      <c r="N75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C75" t="s">
-        <v>308</v>
-      </c>
-      <c r="D75" t="s">
-        <v>309</v>
-      </c>
-      <c r="E75" t="s">
-        <v>310</v>
-      </c>
-      <c r="F75" t="s">
-        <v>311</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K75" t="s">
+      <c r="H76" s="1"/>
+      <c r="I76" s="1">
+        <v>2011</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1">
+        <v>2011</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78" t="s">
+        <v>278</v>
+      </c>
+      <c r="D78" t="s">
+        <v>279</v>
+      </c>
+      <c r="E78" t="s">
+        <v>280</v>
+      </c>
+      <c r="F78" t="s">
+        <v>281</v>
+      </c>
+      <c r="G78" t="s">
+        <v>203</v>
+      </c>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78" t="s">
         <v>258</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L78" t="s">
         <v>253</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M78" t="s">
         <v>254</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N78" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="O78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>198</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="G76" s="2" t="s">
+      <c r="B79"/>
+      <c r="C79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" t="s">
+        <v>215</v>
+      </c>
+      <c r="E79" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79" t="s">
+        <v>217</v>
+      </c>
+      <c r="G79" t="s">
         <v>203</v>
       </c>
-      <c r="K76" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79" t="s">
+        <v>211</v>
+      </c>
+      <c r="L79" t="s">
+        <v>212</v>
+      </c>
+      <c r="M79" t="s">
+        <v>213</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+    </row>
+    <row r="80" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G77" s="2" t="s">
+      <c r="B80"/>
+      <c r="C80" t="s">
+        <v>263</v>
+      </c>
+      <c r="D80" t="s">
+        <v>264</v>
+      </c>
+      <c r="E80" t="s">
+        <v>265</v>
+      </c>
+      <c r="F80" t="s">
+        <v>266</v>
+      </c>
+      <c r="G80" t="s">
         <v>203</v>
       </c>
-      <c r="K77" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80" t="s">
+        <v>258</v>
+      </c>
+      <c r="L80" t="s">
+        <v>253</v>
+      </c>
+      <c r="M80" t="s">
+        <v>254</v>
+      </c>
+      <c r="N80" t="s">
+        <v>255</v>
+      </c>
+      <c r="O80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>198</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="B81"/>
+      <c r="C81" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" t="s">
+        <v>260</v>
+      </c>
+      <c r="E81" t="s">
+        <v>261</v>
+      </c>
+      <c r="F81" t="s">
+        <v>262</v>
+      </c>
+      <c r="G81" t="s">
         <v>203</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>317</v>
-      </c>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81" t="s">
+        <v>258</v>
+      </c>
+      <c r="L81" t="s">
+        <v>253</v>
+      </c>
+      <c r="M81" t="s">
+        <v>254</v>
+      </c>
+      <c r="N81" t="s">
+        <v>255</v>
+      </c>
+      <c r="O81"/>
+      <c r="P81"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="D82" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="E82" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="F82" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="G82" t="s">
-        <v>339</v>
-      </c>
-      <c r="I82">
-        <v>2014</v>
+        <v>203</v>
       </c>
       <c r="K82" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="L82" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
       <c r="M82" t="s">
-        <v>347</v>
+        <v>254</v>
+      </c>
+      <c r="N82" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="D83" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="E83" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="F83" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="G83" t="s">
-        <v>339</v>
+        <v>203</v>
+      </c>
+      <c r="H83">
+        <v>2015</v>
       </c>
       <c r="I83">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="K83" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="L83" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="M83" t="s">
-        <v>347</v>
+        <v>254</v>
+      </c>
+      <c r="N83" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>353</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
-        <v>354</v>
+        <v>200</v>
       </c>
       <c r="E84" t="s">
-        <v>355</v>
+        <v>201</v>
       </c>
       <c r="F84" t="s">
-        <v>356</v>
+        <v>202</v>
       </c>
       <c r="G84" t="s">
-        <v>339</v>
+        <v>203</v>
       </c>
       <c r="K84" t="s">
-        <v>357</v>
+        <v>204</v>
       </c>
       <c r="L84" t="s">
         <v>205</v>
@@ -4769,650 +5013,748 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="D85" t="s">
-        <v>359</v>
+        <v>270</v>
       </c>
       <c r="E85" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="F85" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="G85" t="s">
-        <v>345</v>
-      </c>
-      <c r="H85" t="s">
-        <v>346</v>
+        <v>203</v>
+      </c>
+      <c r="H85">
+        <v>2015</v>
+      </c>
+      <c r="I85">
+        <v>2015</v>
       </c>
       <c r="K85" t="s">
-        <v>345</v>
+        <v>273</v>
       </c>
       <c r="L85" t="s">
-        <v>346</v>
+        <v>164</v>
       </c>
       <c r="M85" t="s">
-        <v>347</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>338</v>
-      </c>
-      <c r="C86" t="s">
-        <v>361</v>
-      </c>
-      <c r="D86" t="s">
-        <v>362</v>
-      </c>
-      <c r="E86" t="s">
-        <v>363</v>
-      </c>
-      <c r="F86" t="s">
-        <v>351</v>
-      </c>
-      <c r="G86" t="s">
-        <v>339</v>
-      </c>
-      <c r="I86">
-        <v>2014</v>
-      </c>
-      <c r="K86" t="s">
-        <v>345</v>
-      </c>
-      <c r="L86" t="s">
-        <v>352</v>
-      </c>
-      <c r="M86" t="s">
-        <v>347</v>
-      </c>
+      <c r="A86" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
     </row>
     <row r="87" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="A87" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
     </row>
     <row r="88" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H88" s="1">
-        <v>1999</v>
-      </c>
-      <c r="I88" s="1">
-        <v>2017</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>374</v>
-      </c>
+      <c r="A88" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" t="s">
+        <v>275</v>
+      </c>
+      <c r="E88" t="s">
+        <v>276</v>
+      </c>
+      <c r="F88" t="s">
+        <v>277</v>
+      </c>
+      <c r="G88" t="s">
+        <v>203</v>
+      </c>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88" t="s">
+        <v>258</v>
+      </c>
+      <c r="L88" t="s">
+        <v>253</v>
+      </c>
+      <c r="M88" t="s">
+        <v>254</v>
+      </c>
+      <c r="N88" t="s">
+        <v>255</v>
+      </c>
+      <c r="O88"/>
+      <c r="P88"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="D89" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="E89" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="F89" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="G89" t="s">
-        <v>379</v>
-      </c>
-      <c r="I89">
-        <v>2011</v>
+        <v>203</v>
       </c>
       <c r="K89" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
       <c r="L89" t="s">
-        <v>381</v>
+        <v>253</v>
       </c>
       <c r="M89" t="s">
-        <v>347</v>
+        <v>254</v>
+      </c>
+      <c r="N89" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="C90" t="s">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="D90" t="s">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="E90" t="s">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="F90" t="s">
-        <v>385</v>
+        <v>307</v>
+      </c>
+      <c r="G90" t="s">
+        <v>203</v>
       </c>
       <c r="K90" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="L90" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="M90" t="s">
-        <v>206</v>
+        <v>254</v>
+      </c>
+      <c r="N90" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E91" t="s">
+        <v>231</v>
+      </c>
+      <c r="F91" t="s">
+        <v>232</v>
+      </c>
+      <c r="G91" t="s">
+        <v>203</v>
+      </c>
+      <c r="K91" t="s">
+        <v>204</v>
+      </c>
+      <c r="L91" t="s">
+        <v>205</v>
+      </c>
+      <c r="M91" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+    </row>
+    <row r="93" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+    </row>
+    <row r="95" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+    </row>
+    <row r="96" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+    </row>
+    <row r="97" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+    </row>
+    <row r="98" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>338</v>
       </c>
-      <c r="C91" t="s">
-        <v>386</v>
-      </c>
-      <c r="D91" t="s">
-        <v>387</v>
-      </c>
-      <c r="E91" t="s">
-        <v>388</v>
-      </c>
-      <c r="F91" t="s">
-        <v>389</v>
-      </c>
-      <c r="K91" t="s">
-        <v>390</v>
-      </c>
-      <c r="L91" t="s">
-        <v>391</v>
-      </c>
-      <c r="M91" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="B98"/>
+      <c r="C98" t="s">
+        <v>353</v>
+      </c>
+      <c r="D98" t="s">
+        <v>354</v>
+      </c>
+      <c r="E98" t="s">
+        <v>355</v>
+      </c>
+      <c r="F98" t="s">
+        <v>356</v>
+      </c>
+      <c r="G98" t="s">
+        <v>339</v>
+      </c>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98" t="s">
+        <v>357</v>
+      </c>
+      <c r="L98" t="s">
+        <v>205</v>
+      </c>
+      <c r="M98" t="s">
+        <v>206</v>
+      </c>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+    </row>
+    <row r="99" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>338</v>
       </c>
-      <c r="C92" t="s">
-        <v>393</v>
-      </c>
-      <c r="D92" t="s">
-        <v>394</v>
-      </c>
-      <c r="E92" t="s">
-        <v>395</v>
-      </c>
-      <c r="F92" t="s">
-        <v>396</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="B99"/>
+      <c r="C99" t="s">
+        <v>437</v>
+      </c>
+      <c r="D99" t="s">
+        <v>438</v>
+      </c>
+      <c r="E99" t="s">
+        <v>439</v>
+      </c>
+      <c r="F99" t="s">
+        <v>440</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99">
+        <v>2012</v>
+      </c>
+      <c r="I99">
+        <v>2015</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99" t="s">
+        <v>435</v>
+      </c>
+      <c r="L99" t="s">
+        <v>436</v>
+      </c>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+    </row>
+    <row r="100" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>338</v>
+      </c>
+      <c r="B100"/>
+      <c r="C100" t="s">
+        <v>341</v>
+      </c>
+      <c r="D100" t="s">
+        <v>342</v>
+      </c>
+      <c r="E100" t="s">
+        <v>343</v>
+      </c>
+      <c r="F100" t="s">
+        <v>344</v>
+      </c>
+      <c r="G100" t="s">
         <v>339</v>
       </c>
-      <c r="I92">
-        <v>2015</v>
-      </c>
-      <c r="K92" t="s">
-        <v>397</v>
-      </c>
-      <c r="L92" t="s">
-        <v>164</v>
-      </c>
-      <c r="M92" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="H100"/>
+      <c r="I100">
+        <v>2014</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100" t="s">
+        <v>345</v>
+      </c>
+      <c r="L100" t="s">
+        <v>346</v>
+      </c>
+      <c r="M100" t="s">
+        <v>347</v>
+      </c>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+    </row>
+    <row r="101" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>338</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G93" s="1" t="s">
+      <c r="B101"/>
+      <c r="C101" t="s">
+        <v>358</v>
+      </c>
+      <c r="D101" t="s">
+        <v>359</v>
+      </c>
+      <c r="E101" t="s">
+        <v>360</v>
+      </c>
+      <c r="F101" t="s">
+        <v>344</v>
+      </c>
+      <c r="G101" t="s">
+        <v>345</v>
+      </c>
+      <c r="H101" t="s">
+        <v>346</v>
+      </c>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101" t="s">
+        <v>345</v>
+      </c>
+      <c r="L101" t="s">
+        <v>346</v>
+      </c>
+      <c r="M101" t="s">
+        <v>347</v>
+      </c>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+    </row>
+    <row r="102" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>338</v>
+      </c>
+      <c r="B102"/>
+      <c r="C102" t="s">
+        <v>449</v>
+      </c>
+      <c r="D102" t="s">
+        <v>450</v>
+      </c>
+      <c r="E102" t="s">
+        <v>451</v>
+      </c>
+      <c r="F102" t="s">
+        <v>452</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102">
+        <v>2013</v>
+      </c>
+      <c r="I102">
+        <v>2017</v>
+      </c>
+      <c r="J102"/>
+      <c r="K102" t="s">
+        <v>435</v>
+      </c>
+      <c r="L102" t="s">
+        <v>436</v>
+      </c>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+    </row>
+    <row r="103" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>338</v>
+      </c>
+      <c r="B103"/>
+      <c r="C103" t="s">
+        <v>348</v>
+      </c>
+      <c r="D103" t="s">
+        <v>349</v>
+      </c>
+      <c r="E103" t="s">
+        <v>350</v>
+      </c>
+      <c r="F103" t="s">
+        <v>351</v>
+      </c>
+      <c r="G103" t="s">
         <v>339</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="M93" s="1" t="s">
+      <c r="H103"/>
+      <c r="I103">
+        <v>2014</v>
+      </c>
+      <c r="J103"/>
+      <c r="K103" t="s">
+        <v>345</v>
+      </c>
+      <c r="L103" t="s">
+        <v>352</v>
+      </c>
+      <c r="M103" t="s">
         <v>347</v>
       </c>
-      <c r="P93" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+    </row>
+    <row r="104" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>338</v>
       </c>
-      <c r="C94" t="s">
-        <v>404</v>
-      </c>
-      <c r="D94" t="s">
-        <v>405</v>
-      </c>
-      <c r="E94" t="s">
-        <v>406</v>
-      </c>
-      <c r="F94" t="s">
-        <v>407</v>
-      </c>
-      <c r="K94" t="s">
-        <v>340</v>
-      </c>
-      <c r="L94" t="s">
-        <v>205</v>
-      </c>
-      <c r="M94" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="G95" s="1" t="s">
+      <c r="B104"/>
+      <c r="C104" t="s">
+        <v>361</v>
+      </c>
+      <c r="D104" t="s">
+        <v>362</v>
+      </c>
+      <c r="E104" t="s">
+        <v>363</v>
+      </c>
+      <c r="F104" t="s">
+        <v>351</v>
+      </c>
+      <c r="G104" t="s">
         <v>339</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H99" s="1">
-        <v>2012</v>
-      </c>
-      <c r="I99" s="1">
-        <v>2016</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H100" s="1">
-        <v>2011</v>
-      </c>
-      <c r="I100" s="1">
-        <v>2016</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="M100" s="1" t="s">
+      <c r="H104"/>
+      <c r="I104">
+        <v>2014</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104" t="s">
+        <v>345</v>
+      </c>
+      <c r="L104" t="s">
+        <v>352</v>
+      </c>
+      <c r="M104" t="s">
         <v>347</v>
       </c>
-      <c r="P100" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H101" s="1">
-        <v>2011</v>
-      </c>
-      <c r="I101" s="1">
-        <v>2016</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H102" s="1">
-        <v>2012</v>
-      </c>
-      <c r="I102" s="1">
-        <v>2016</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H103" s="1">
-        <v>2011</v>
-      </c>
-      <c r="I103" s="1">
-        <v>2015</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>338</v>
       </c>
       <c r="C105" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="D105" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="E105" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="F105" t="s">
-        <v>434</v>
-      </c>
-      <c r="H105">
-        <v>2013</v>
+        <v>396</v>
+      </c>
+      <c r="G105" t="s">
+        <v>339</v>
       </c>
       <c r="I105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="K105" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="L105" t="s">
-        <v>436</v>
+        <v>164</v>
+      </c>
+      <c r="M105" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
@@ -5420,22 +5762,22 @@
         <v>338</v>
       </c>
       <c r="C106" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="D106" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="E106" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="F106" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="H106">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="I106">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="K106" t="s">
         <v>435</v>
@@ -5449,22 +5791,22 @@
         <v>338</v>
       </c>
       <c r="C107" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D107" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E107" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F107" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="H107">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I107">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="K107" t="s">
         <v>435</v>
@@ -5507,28 +5849,25 @@
         <v>338</v>
       </c>
       <c r="C109" t="s">
-        <v>449</v>
+        <v>382</v>
       </c>
       <c r="D109" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="E109" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="F109" t="s">
-        <v>452</v>
-      </c>
-      <c r="H109">
-        <v>2013</v>
-      </c>
-      <c r="I109">
-        <v>2017</v>
+        <v>385</v>
       </c>
       <c r="K109" t="s">
-        <v>435</v>
+        <v>340</v>
       </c>
       <c r="L109" t="s">
-        <v>436</v>
+        <v>205</v>
+      </c>
+      <c r="M109" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
@@ -5536,141 +5875,174 @@
         <v>338</v>
       </c>
       <c r="C110" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="D110" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="E110" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="F110" t="s">
-        <v>456</v>
-      </c>
-      <c r="H110">
+        <v>389</v>
+      </c>
+      <c r="K110" t="s">
+        <v>390</v>
+      </c>
+      <c r="L110" t="s">
+        <v>391</v>
+      </c>
+      <c r="M110" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>338</v>
+      </c>
+      <c r="B111"/>
+      <c r="C111" t="s">
+        <v>441</v>
+      </c>
+      <c r="D111" t="s">
+        <v>442</v>
+      </c>
+      <c r="E111" t="s">
+        <v>443</v>
+      </c>
+      <c r="F111" t="s">
+        <v>444</v>
+      </c>
+      <c r="G111"/>
+      <c r="H111">
+        <v>2015</v>
+      </c>
+      <c r="I111">
         <v>2016</v>
       </c>
-      <c r="I110">
-        <v>2017</v>
-      </c>
-      <c r="K110" t="s">
+      <c r="J111"/>
+      <c r="K111" t="s">
         <v>435</v>
       </c>
-      <c r="L110" t="s">
+      <c r="L111" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+    </row>
+    <row r="112" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>338</v>
+      </c>
+      <c r="B112"/>
+      <c r="C112" t="s">
+        <v>375</v>
+      </c>
+      <c r="D112" t="s">
+        <v>376</v>
+      </c>
+      <c r="E112" t="s">
+        <v>377</v>
+      </c>
+      <c r="F112" t="s">
         <v>378</v>
       </c>
-      <c r="K111" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="M111" s="1" t="s">
+      <c r="G112" t="s">
+        <v>379</v>
+      </c>
+      <c r="H112"/>
+      <c r="I112">
+        <v>2011</v>
+      </c>
+      <c r="J112"/>
+      <c r="K112" t="s">
+        <v>380</v>
+      </c>
+      <c r="L112" t="s">
+        <v>381</v>
+      </c>
+      <c r="M112" t="s">
         <v>347</v>
       </c>
-      <c r="P111" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
     </row>
     <row r="113" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>520</v>
+        <v>338</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>523</v>
+        <v>368</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>530</v>
+        <v>369</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>531</v>
+        <v>370</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>537</v>
+        <v>371</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1999</v>
+      </c>
+      <c r="I113" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>467</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="A114" t="s">
+        <v>338</v>
+      </c>
+      <c r="B114"/>
+      <c r="C114" t="s">
+        <v>404</v>
+      </c>
+      <c r="D114" t="s">
+        <v>405</v>
+      </c>
+      <c r="E114" t="s">
+        <v>406</v>
+      </c>
+      <c r="F114" t="s">
+        <v>407</v>
+      </c>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114" t="s">
+        <v>340</v>
+      </c>
+      <c r="L114" t="s">
+        <v>205</v>
+      </c>
+      <c r="M114" t="s">
+        <v>206</v>
+      </c>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
     </row>
   </sheetData>
+  <sortState ref="A2:P115">
+    <sortCondition ref="P2:P115"/>
+    <sortCondition ref="A2:A115"/>
+    <sortCondition ref="B2:B115"/>
+    <sortCondition ref="C2:C115"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>